--- a/pred_ohlcv/54_21/2019-11-21 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 FCT ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>74054.74963103446</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>205294.5718310345</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>144863.5618310345</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>117599.2109310345</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>133911.8557310345</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>183707.6923310345</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>136512.4385310345</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>160507.2113310345</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>162148.7861310345</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>162138.7861310345</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>152890.6365310345</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>165510.1738310345</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>160665.7573310345</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>155905.6679310345</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>153167.6466310346</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>177686.5458310345</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>197726.6639310345</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>197971.6190310346</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>201774.9455310346</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>208979.7759310346</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>208984.7759310346</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>203154.8993536152</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>203016.3528536152</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>187669.2342536152</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>187726.7207536152</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>187726.7207536152</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>187814.7207536152</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>158555.4124536152</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>163682.5965536152</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>163682.5965536152</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>143452.2714536152</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>143457.2714536152</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>138169.0124536152</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>133499.5781536152</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-805339.7423247183</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-805350.3423247183</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-805345.3423247183</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-805735.6524247183</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-690836.4097902921</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-690832.3097902922</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-690832.3097902922</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-660720.8299902922</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-662274.6971902922</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-662274.6971902922</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-646384.0489902922</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-646384.0489902922</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-617756.1333902923</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-629636.4408470743</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-575718.1855768451</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-521422.7664999794</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-521422.7664999794</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-592672.5997381473</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-610924.4410381473</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-610924.4410381473</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-608979.4257709717</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-581306.3822126788</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-581984.4181126788</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-581984.4181126788</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-600221.8449126788</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-603405.0728126789</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-603405.0728126789</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-607089.3180126789</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-578731.3366126788</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-582258.1954126789</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-581829.1191126789</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-665816.667812679</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-665816.667812679</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 FCT ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>74054.74963103446</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>205294.5718310345</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>130348.1133310345</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>144863.5618310345</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>123849.0554310345</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>117599.2109310345</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>133911.8557310345</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>183707.6923310345</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>136512.4385310345</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>160507.2113310345</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>162148.7861310345</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>162138.7861310345</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>136385.2918310345</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>152890.6365310345</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>165510.1738310345</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>160665.7573310345</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>150757.2442310345</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>155905.6679310345</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>157467.4803310345</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>153167.6466310346</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>177686.5458310345</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>197726.6639310345</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>194371.2334310345</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>197971.6190310346</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>201774.9455310346</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>215012.0475310346</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>208979.7759310346</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>208984.7759310346</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-810027.0788247184</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-804833.3033247184</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-804846.9138247183</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-805339.7423247183</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-805350.3423247183</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-805345.3423247183</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-805735.6524247183</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-805730.6524247183</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-805725.6524247183</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-809312.1787247183</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-802239.1933247183</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-819685.1933247183</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-796295.4653247183</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-796246.2436247183</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-797913.2539247182</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-797908.2539247182</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-757170.3745247183</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-718081.5432247183</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-703950.0953247183</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-713770.0954247182</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-716754.2648247182</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-715638.6872247183</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-715638.6872247183</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-716105.8149902921</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-690836.4097902921</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-690832.3097902922</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-690832.3097902922</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-660720.8299902922</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-662274.6971902922</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-662274.6971902922</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-662217.4754902922</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-646384.0489902922</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-646384.0489902922</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-617756.1333902923</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-561642.1097470743</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-540407.9542989827</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-554855.0954989827</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-629636.4408470743</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-629636.4408470743</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-563114.6536768451</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-575718.1855768451</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-487200.1885999794</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-521422.7664999794</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-521422.7664999794</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-592672.5997381473</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-610924.4410381473</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-610924.4410381473</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-608979.4257709717</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-581306.3822126788</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-581984.4181126788</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-581984.4181126788</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-611202.4096126788</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-600221.8449126788</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
